--- a/biology/Médecine/Rameau_descendant_de_l'artère_circonflexe_fémorale_médiale/Rameau_descendant_de_l'artère_circonflexe_fémorale_médiale.xlsx
+++ b/biology/Médecine/Rameau_descendant_de_l'artère_circonflexe_fémorale_médiale/Rameau_descendant_de_l'artère_circonflexe_fémorale_médiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rameau_descendant_de_l%27art%C3%A8re_circonflexe_f%C3%A9morale_m%C3%A9diale</t>
+          <t>Rameau_descendant_de_l'artère_circonflexe_fémorale_médiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le rameau descendant de l'artère fémorale circonflexe médiale est une petite artère du membre inférieur situé dans la cuisse.
 Le rameau descendant nait de l'artère circonflexe fémorale médiale au niveau du bord supérieur du muscle court adducteur.
